--- a/analisis/resultados/argentina/renta_metodo_indirecto.xlsx
+++ b/analisis/resultados/argentina/renta_metodo_indirecto.xlsx
@@ -1168,7 +1168,7 @@
         <v>1.368981402740116e-011</v>
       </c>
       <c r="F54">
-        <v>-8695.692477535769</v>
+        <v>-8695.778062100924</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>-8701.736785914423</v>
+        <v>-8701.822370479578</v>
       </c>
     </row>
     <row r="55">
@@ -1214,7 +1214,7 @@
         <v>1.596118318709646e-011</v>
       </c>
       <c r="F55">
-        <v>12058.43097841918</v>
+        <v>12058.12358911723</v>
       </c>
       <c r="G55">
         <v>6766.23598151516</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>18831.1379047894</v>
+        <v>18830.83051548745</v>
       </c>
     </row>
     <row r="56">
@@ -1260,7 +1260,7 @@
         <v>1.933484732146814e-011</v>
       </c>
       <c r="F56">
-        <v>21819.10056768258</v>
+        <v>21542.95141278217</v>
       </c>
       <c r="G56">
         <v>4998.93328538325</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>26818.11055331316</v>
+        <v>26541.96139841275</v>
       </c>
     </row>
     <row r="57">
@@ -1306,7 +1306,7 @@
         <v>2.491185820885275e-011</v>
       </c>
       <c r="F57">
-        <v>67820.64777262289</v>
+        <v>67822.62717500818</v>
       </c>
       <c r="G57">
         <v>2042.958709782104</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>69868.12013213284</v>
+        <v>69870.09953451813</v>
       </c>
     </row>
     <row r="58">
@@ -1352,7 +1352,7 @@
         <v>3.281393980941069e-011</v>
       </c>
       <c r="F58">
-        <v>-17865.89408150345</v>
+        <v>-17865.53230784444</v>
       </c>
       <c r="G58">
         <v>2261.182599389374</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>-15604.94538613893</v>
+        <v>-15604.58361247992</v>
       </c>
     </row>
     <row r="59">
@@ -1398,7 +1398,7 @@
         <v>3.527585316582835e-011</v>
       </c>
       <c r="F59">
-        <v>-43408.45981783959</v>
+        <v>-43404.19694440936</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>-43405.65941875908</v>
+        <v>-43401.39654532886</v>
       </c>
     </row>
     <row r="60">
@@ -1444,7 +1444,7 @@
         <v>3.345806827809946e-011</v>
       </c>
       <c r="F60">
-        <v>-15685.35131154154</v>
+        <v>-16086.60317577024</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>-15693.82595098616</v>
+        <v>-16095.07781521486</v>
       </c>
     </row>
     <row r="61">
@@ -1490,7 +1490,7 @@
         <v>3.569785208225281e-011</v>
       </c>
       <c r="F61">
-        <v>17706.47186349012</v>
+        <v>17703.70663472484</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>17706.47186349012</v>
+        <v>17703.70663472484</v>
       </c>
     </row>
     <row r="62">
@@ -1536,7 +1536,7 @@
         <v>4.772027305048387e-011</v>
       </c>
       <c r="F62">
-        <v>45326.92438998339</v>
+        <v>45342.16503072481</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>45326.92438998339</v>
+        <v>45342.16503072481</v>
       </c>
     </row>
     <row r="63">
@@ -1582,7 +1582,7 @@
         <v>7.458349597619671e-011</v>
       </c>
       <c r="F63">
-        <v>54413.89759137775</v>
+        <v>54410.55651975346</v>
       </c>
       <c r="G63">
         <v>-4351.819606909508</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>50062.07791078088</v>
+        <v>50058.73683915658</v>
       </c>
     </row>
     <row r="64">
@@ -1628,7 +1628,7 @@
         <v>1.137583147578198e-010</v>
       </c>
       <c r="F64">
-        <v>60108.36331394507</v>
+        <v>60110.65549866717</v>
       </c>
       <c r="G64">
         <v>55514.62808732761</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>115622.9914012727</v>
+        <v>115625.2835859948</v>
       </c>
     </row>
     <row r="65">
@@ -1674,7 +1674,7 @@
         <v>1.264758559732277e-010</v>
       </c>
       <c r="F65">
-        <v>246278.6362830289</v>
+        <v>246281.346822763</v>
       </c>
       <c r="G65">
         <v>12660.91036106831</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>259109.1555272289</v>
+        <v>259111.866066963</v>
       </c>
     </row>
     <row r="66">
@@ -1720,7 +1720,7 @@
         <v>3.74002397389071e-010</v>
       </c>
       <c r="F66">
-        <v>261556.3427959038</v>
+        <v>261558.8952743505</v>
       </c>
       <c r="G66">
         <v>25120.76419542359</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>286746.7315102737</v>
+        <v>286749.2839887203</v>
       </c>
     </row>
     <row r="67">
@@ -1766,7 +1766,7 @@
         <v>2.001721362135581e-009</v>
       </c>
       <c r="F67">
-        <v>210520.2185866227</v>
+        <v>210524.4295366898</v>
       </c>
       <c r="G67">
         <v>32207.75287225907</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>242731.259495461</v>
+        <v>242735.4704455282</v>
       </c>
     </row>
     <row r="68">
@@ -1812,7 +1812,7 @@
         <v>4.817638854131992e-009</v>
       </c>
       <c r="F68">
-        <v>235996.3197274195</v>
+        <v>235999.4667219014</v>
       </c>
       <c r="G68">
         <v>23917.29940104671</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>259920.0278331693</v>
+        <v>259923.1748276512</v>
       </c>
     </row>
     <row r="69">
@@ -1858,7 +1858,7 @@
         <v>1.26226303914943e-008</v>
       </c>
       <c r="F69">
-        <v>224939.6757205745</v>
+        <v>224938.6476207426</v>
       </c>
       <c r="G69">
         <v>20274.97081955896</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>245225.0446025817</v>
+        <v>245224.0165027498</v>
       </c>
     </row>
     <row r="70">
@@ -1904,7 +1904,7 @@
         <v>2.462601971542461e-008</v>
       </c>
       <c r="F70">
-        <v>486339.1048422559</v>
+        <v>486337.5979958536</v>
       </c>
       <c r="G70">
         <v>24036.32881228244</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>510375.4368376298</v>
+        <v>510373.9299912275</v>
       </c>
     </row>
     <row r="71">
@@ -1950,7 +1950,7 @@
         <v>4.162040187202227e-008</v>
       </c>
       <c r="F71">
-        <v>496594.551422226</v>
+        <v>496598.0977811315</v>
       </c>
       <c r="G71">
         <v>50949.37573063355</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>547543.9271528595</v>
+        <v>547547.473511765</v>
       </c>
     </row>
     <row r="72">
@@ -1996,7 +1996,7 @@
         <v>8.190042358174585e-008</v>
       </c>
       <c r="F72">
-        <v>466388.2495841112</v>
+        <v>466394.2144137278</v>
       </c>
       <c r="G72">
         <v>71592.43825328059</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>537980.6878373917</v>
+        <v>537986.6526670083</v>
       </c>
     </row>
     <row r="73">
@@ -2042,7 +2042,7 @@
         <v>2.066742777182704e-007</v>
       </c>
       <c r="F73">
-        <v>366520.6131012832</v>
+        <v>366521.9519893676</v>
       </c>
       <c r="G73">
         <v>92344.43281019392</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>458865.0459114771</v>
+        <v>458866.3847995615</v>
       </c>
     </row>
     <row r="74">
@@ -2088,7 +2088,7 @@
         <v>8.931256667281215e-007</v>
       </c>
       <c r="F74">
-        <v>236916.1734194953</v>
+        <v>236917.1053086371</v>
       </c>
       <c r="G74">
         <v>88576.64599507157</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>325492.8194145669</v>
+        <v>325493.7513037087</v>
       </c>
     </row>
     <row r="75">
@@ -2134,7 +2134,7 @@
         <v>6.521534993208238e-006</v>
       </c>
       <c r="F75">
-        <v>245779.8477044707</v>
+        <v>245781.5340307482</v>
       </c>
       <c r="G75">
         <v>97472.23689873524</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>343233.4931722494</v>
+        <v>343235.1794985269</v>
       </c>
     </row>
     <row r="76">
@@ -2180,7 +2180,7 @@
         <v>5.369904101939766e-005</v>
       </c>
       <c r="F76">
-        <v>198332.4013941207</v>
+        <v>198332.8619590964</v>
       </c>
       <c r="G76">
         <v>102016.3434875573</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>299648.4146730994</v>
+        <v>299648.875238075</v>
       </c>
     </row>
     <row r="77">
@@ -2226,7 +2226,7 @@
         <v>8.955315961391932e-005</v>
       </c>
       <c r="F77">
-        <v>109799.2574750645</v>
+        <v>109799.0207562559</v>
       </c>
       <c r="G77">
         <v>75949.8335206503</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>185669.4276276004</v>
+        <v>185669.1909087917</v>
       </c>
     </row>
     <row r="78">
@@ -2272,7 +2272,7 @@
         <v>0.0002084751217589009</v>
       </c>
       <c r="F78">
-        <v>104878.5943588058</v>
+        <v>104879.1785746435</v>
       </c>
       <c r="G78">
         <v>59739.96273964808</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>164598.3454081766</v>
+        <v>164598.9296240142</v>
       </c>
     </row>
     <row r="79">
@@ -2318,7 +2318,7 @@
         <v>0.0009757902950238913</v>
       </c>
       <c r="F79">
-        <v>25177.69559860677</v>
+        <v>25177.38478703289</v>
       </c>
       <c r="G79">
         <v>37422.60509144937</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>62774.45346089987</v>
+        <v>62774.14264932599</v>
       </c>
     </row>
     <row r="80">
@@ -2364,7 +2364,7 @@
         <v>0.02997746864233889</v>
       </c>
       <c r="F80">
-        <v>177972.1158081863</v>
+        <v>177974.0305691172</v>
       </c>
       <c r="G80">
         <v>96493.68778722729</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>273429.5047645484</v>
+        <v>273431.4195254793</v>
       </c>
     </row>
     <row r="81">
@@ -2410,7 +2410,7 @@
         <v>0.7399955380923077</v>
       </c>
       <c r="F81">
-        <v>173759.4353348481</v>
+        <v>173759.6673078132</v>
       </c>
       <c r="G81">
         <v>99392.14450859489</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>277770.6679692788</v>
+        <v>277770.8999422438</v>
       </c>
     </row>
     <row r="82">
@@ -2456,7 +2456,7 @@
         <v>1.71047390032745</v>
       </c>
       <c r="F82">
-        <v>198680.2306444895</v>
+        <v>198676.7927250647</v>
       </c>
       <c r="G82">
         <v>94011.23836257792</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>309033.38563813</v>
+        <v>309029.9477187052</v>
       </c>
     </row>
     <row r="83">
@@ -2502,7 +2502,7 @@
         <v>1.923274173936026</v>
       </c>
       <c r="F83">
-        <v>145732.1386828679</v>
+        <v>145732.6516005191</v>
       </c>
       <c r="G83">
         <v>46392.34477488932</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>213029.7333637712</v>
+        <v>213030.2462814224</v>
       </c>
     </row>
     <row r="84">
@@ -2548,7 +2548,7 @@
         <v>1.984071733694896</v>
       </c>
       <c r="F84">
-        <v>86678.04696752819</v>
+        <v>86658.07339375131</v>
       </c>
       <c r="G84">
         <v>8212.366258014361</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>119963.1095863722</v>
+        <v>119943.1360125953</v>
       </c>
     </row>
     <row r="85">
@@ -2594,7 +2594,7 @@
         <v>1.923568591718104</v>
       </c>
       <c r="F85">
-        <v>73176.3310109227</v>
+        <v>73145.53942919931</v>
       </c>
       <c r="G85">
         <v>4028.815719640664</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>103852.3461471902</v>
+        <v>103821.5545654668</v>
       </c>
     </row>
     <row r="86">
@@ -2640,7 +2640,7 @@
         <v>2.017474921543611</v>
       </c>
       <c r="F86">
-        <v>78707.2580229895</v>
+        <v>78707.25744098383</v>
       </c>
       <c r="G86">
         <v>6386.662734161024</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>129975.935649184</v>
+        <v>129975.9350671783</v>
       </c>
     </row>
     <row r="87">
@@ -2686,7 +2686,7 @@
         <v>1.85784504592785</v>
       </c>
       <c r="F87">
-        <v>71302.97890166593</v>
+        <v>71302.97986002882</v>
       </c>
       <c r="G87">
         <v>3542.516575894432</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>144771.6243869278</v>
+        <v>144771.6253452907</v>
       </c>
     </row>
     <row r="88">
@@ -2732,7 +2732,7 @@
         <v>1.768393605818139</v>
       </c>
       <c r="F88">
-        <v>62612.32891467142</v>
+        <v>62612.32844752446</v>
       </c>
       <c r="G88">
         <v>-675.350834205389</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>123843.9200951573</v>
+        <v>123843.9196280103</v>
       </c>
     </row>
     <row r="89">
@@ -2778,7 +2778,7 @@
         <v>1.763942688451787</v>
       </c>
       <c r="F89">
-        <v>39078.73155949661</v>
+        <v>39078.73157645172</v>
       </c>
       <c r="G89">
         <v>-7921.360354745199</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>71750.93678234912</v>
+        <v>71750.93679930424</v>
       </c>
     </row>
     <row r="90">
@@ -2824,7 +2824,7 @@
         <v>1.820597603029724</v>
       </c>
       <c r="F90">
-        <v>66602.99981724433</v>
+        <v>60992.35023962527</v>
       </c>
       <c r="G90">
         <v>-12665.49587468735</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>102053.8203577462</v>
+        <v>96443.17078012711</v>
       </c>
     </row>
     <row r="91">
@@ -2870,7 +2870,7 @@
         <v>1.761519183638594</v>
       </c>
       <c r="F91">
-        <v>150683.028199443</v>
+        <v>144505.6898279006</v>
       </c>
       <c r="G91">
         <v>25820.7097331609</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>207172.251629181</v>
+        <v>200994.9132576386</v>
       </c>
     </row>
     <row r="92">
@@ -2916,7 +2916,7 @@
         <v>1.793957717969458</v>
       </c>
       <c r="F92">
-        <v>95912.23620832863</v>
+        <v>87991.83446722754</v>
       </c>
       <c r="G92">
         <v>-11061.51683642452</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>162716.3066240641</v>
+        <v>154795.9048829631</v>
       </c>
     </row>
     <row r="93">
@@ -2962,7 +2962,7 @@
         <v>2.347955579367929</v>
       </c>
       <c r="F93">
-        <v>-13415.46473174837</v>
+        <v>-12318.71280984608</v>
       </c>
       <c r="G93">
         <v>-10122.05497794244</v>
@@ -2986,7 +2986,7 @@
         <v>158983.7936548035</v>
       </c>
       <c r="N93">
-        <v>165850.1823885322</v>
+        <v>166946.9343104345</v>
       </c>
     </row>
     <row r="94">
@@ -3008,7 +3008,7 @@
         <v>2.485686063511499</v>
       </c>
       <c r="F94">
-        <v>14412.32798459569</v>
+        <v>13289.93898673179</v>
       </c>
       <c r="G94">
         <v>-7910.32243076508</v>
@@ -3032,7 +3032,7 @@
         <v>81712.67876940637</v>
       </c>
       <c r="N94">
-        <v>138985.141814381</v>
+        <v>137862.7528165171</v>
       </c>
     </row>
     <row r="95">
@@ -3054,7 +3054,7 @@
         <v>2.575290122734927</v>
       </c>
       <c r="F95">
-        <v>35911.96736731957</v>
+        <v>33351.01316514437</v>
       </c>
       <c r="G95">
         <v>6241.642287731537</v>
@@ -3078,7 +3078,7 @@
         <v>83435.52685142949</v>
       </c>
       <c r="N95">
-        <v>196823.880083746</v>
+        <v>194262.9258815708</v>
       </c>
     </row>
     <row r="96">
@@ -3100,7 +3100,7 @@
         <v>2.908372717514005</v>
       </c>
       <c r="F96">
-        <v>124623.8201980498</v>
+        <v>115495.5462596743</v>
       </c>
       <c r="G96">
         <v>29917.84187203991</v>
@@ -3124,7 +3124,7 @@
         <v>78761.15127705933</v>
       </c>
       <c r="N96">
-        <v>338626.8748601822</v>
+        <v>329498.6009218067</v>
       </c>
     </row>
     <row r="97">
@@ -3146,7 +3146,7 @@
         <v>3.093120137663417</v>
       </c>
       <c r="F97">
-        <v>186767.7219068174</v>
+        <v>175850.165169063</v>
       </c>
       <c r="G97">
         <v>85544.37392219906</v>
@@ -3170,7 +3170,7 @@
         <v>81811.55603071259</v>
       </c>
       <c r="N97">
-        <v>470687.0688297374</v>
+        <v>459769.5120919829</v>
       </c>
     </row>
     <row r="98">
@@ -3192,7 +3192,7 @@
         <v>3.431279310742555</v>
       </c>
       <c r="F98">
-        <v>255263.1782236398</v>
+        <v>244737.2254382472</v>
       </c>
       <c r="G98">
         <v>127537.8882008232</v>
@@ -3216,7 +3216,7 @@
         <v>42290.87318073997</v>
       </c>
       <c r="N98">
-        <v>530683.2856317132</v>
+        <v>520157.3328463207</v>
       </c>
     </row>
     <row r="99">
@@ -3238,7 +3238,7 @@
         <v>3.887175422993697</v>
       </c>
       <c r="F99">
-        <v>437539.444821957</v>
+        <v>426501.5658222296</v>
       </c>
       <c r="G99">
         <v>532755.9097247319</v>
@@ -3262,7 +3262,7 @@
         <v>30742.98970312577</v>
       </c>
       <c r="N99">
-        <v>1171129.737410554</v>
+        <v>1160091.858410827</v>
       </c>
     </row>
     <row r="100">
@@ -3284,7 +3284,7 @@
         <v>4.244863935900098</v>
       </c>
       <c r="F100">
-        <v>128877.6731440425</v>
+        <v>134255.7454602888</v>
       </c>
       <c r="G100">
         <v>287400.0756702635</v>
@@ -3308,7 +3308,7 @@
         <v>51769.51930961904</v>
       </c>
       <c r="N100">
-        <v>591400.2234044205</v>
+        <v>596778.2957206669</v>
       </c>
     </row>
     <row r="101">
@@ -3330,7 +3330,7 @@
         <v>5.12356540884357</v>
       </c>
       <c r="F101">
-        <v>248214.6478320993</v>
+        <v>258648.531413107</v>
       </c>
       <c r="G101">
         <v>372143.4458115139</v>
@@ -3354,7 +3354,7 @@
         <v>45729.79459170684</v>
       </c>
       <c r="N101">
-        <v>762983.8145169254</v>
+        <v>773417.698097933</v>
       </c>
     </row>
     <row r="102">
@@ -3376,7 +3376,7 @@
         <v>5.630166150527582</v>
       </c>
       <c r="F102">
-        <v>347271.3247401717</v>
+        <v>361936.7331179901</v>
       </c>
       <c r="G102">
         <v>431095.5658794414</v>
@@ -3400,7 +3400,7 @@
         <v>29920.28463589725</v>
       </c>
       <c r="N102">
-        <v>896378.006003081</v>
+        <v>911043.4143808995</v>
       </c>
     </row>
     <row r="103">
@@ -3422,7 +3422,7 @@
         <v>6.858431860994514</v>
       </c>
       <c r="F103">
-        <v>335507.3885753654</v>
+        <v>349466.2470893167</v>
       </c>
       <c r="G103">
         <v>504662.8212270435</v>
@@ -3446,7 +3446,7 @@
         <v>7334.531326091761</v>
       </c>
       <c r="N103">
-        <v>952657.6021603766</v>
+        <v>966616.4606743279</v>
       </c>
     </row>
     <row r="104">
@@ -3468,7 +3468,7 @@
         <v>8.251678849716484</v>
       </c>
       <c r="F104">
-        <v>267920.8744366628</v>
+        <v>278415.896020552</v>
       </c>
       <c r="G104">
         <v>430055.4196713986</v>
@@ -3492,7 +3492,7 @@
         <v>7125.036379798606</v>
       </c>
       <c r="N104">
-        <v>747891.712778233</v>
+        <v>758386.7343621223</v>
       </c>
     </row>
     <row r="105">
@@ -3514,7 +3514,7 @@
         <v>11.53661832529044</v>
       </c>
       <c r="F105">
-        <v>222112.2938096237</v>
+        <v>230775.7509664311</v>
       </c>
       <c r="G105">
         <v>391842.0619916083</v>
@@ -3538,7 +3538,7 @@
         <v>19176.57960293561</v>
       </c>
       <c r="N105">
-        <v>665680.7097325055</v>
+        <v>674344.1668893128</v>
       </c>
     </row>
     <row r="106">
@@ -3560,7 +3560,7 @@
         <v>15.59633044837531</v>
       </c>
       <c r="F106">
-        <v>19517.44234949136</v>
+        <v>20252.60802633355</v>
       </c>
       <c r="G106">
         <v>251481.1519259434</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>262744.9386895847</v>
+        <v>263480.1043664269</v>
       </c>
     </row>
     <row r="107">
@@ -3606,7 +3606,7 @@
         <v>22.21566503645213</v>
       </c>
       <c r="F107">
-        <v>-960.9521549930986</v>
+        <v>-911.3625605671133</v>
       </c>
       <c r="G107">
         <v>75035.68853026007</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>106165.2669545338</v>
+        <v>106214.8565489598</v>
       </c>
     </row>
     <row r="108">
@@ -3652,7 +3652,7 @@
         <v>24.49566034639551</v>
       </c>
       <c r="F108">
-        <v>16318.60803965649</v>
+        <v>15453.26542697271</v>
       </c>
       <c r="G108">
         <v>111830.2581507045</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>169893.6117699225</v>
+        <v>169028.2691572387</v>
       </c>
     </row>
     <row r="109">
@@ -3698,7 +3698,7 @@
         <v>35.13169686422393</v>
       </c>
       <c r="F109">
-        <v>-25362.49053624298</v>
+        <v>-23878.13795244824</v>
       </c>
       <c r="G109">
         <v>163361.8262589259</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>191355.6633676433</v>
+        <v>192840.015951438</v>
       </c>
     </row>
     <row r="110">
@@ -5220,7 +5220,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>24467322</v>
+        <v>24464806.08</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>24467322</v>
+        <v>24464806.08</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>28499083.8</v>
+        <v>28501599.72</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>28499083.8</v>
+        <v>28501599.72</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>29574639.6</v>
+        <v>29572123.68</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>29574639.6</v>
+        <v>29572123.68</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>30505530</v>
+        <v>30504272.04</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>30505530</v>
+        <v>30504272.04</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>31015003.8</v>
+        <v>31011858.9</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>31015003.8</v>
+        <v>31011858.9</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>33952340.4</v>
+        <v>33951711.41999999</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>33952340.4</v>
+        <v>33951711.41999999</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>35656876.2</v>
+        <v>35656247.22</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>35656876.2</v>
+        <v>35656247.22</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>44575812.59999999</v>
+        <v>44578328.52</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>44575812.59999999</v>
+        <v>44578328.52</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>63860339.4</v>
+        <v>63859811.05679999</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>63860339.4</v>
+        <v>63859811.05679999</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>84459434.39999999</v>
+        <v>84461610.6708</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>84459434.39999999</v>
+        <v>84461610.6708</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>98208937.19999999</v>
+        <v>98205911.8062</v>
       </c>
       <c r="D53">
         <v>1600164.59776432</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>96608772.60223568</v>
+        <v>96605747.20843568</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>97139671.19999999</v>
+        <v>97140620.95979999</v>
       </c>
       <c r="D54">
         <v>640739.0198585599</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>96498932.18014143</v>
+        <v>96499881.93994144</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="M54">
-        <v>-0.000423188824362234</v>
+        <v>-0.0004231929894625529</v>
       </c>
     </row>
     <row r="55">
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>100278281.4</v>
+        <v>100275727.7412</v>
       </c>
       <c r="D55">
         <v>101996.187941</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>100176285.212059</v>
+        <v>100173731.553259</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         </is>
       </c>
       <c r="M55">
-        <v>0.0007167936699370796</v>
+        <v>0.0007167753976837295</v>
       </c>
     </row>
     <row r="56">
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>99536085</v>
+        <v>98276326.11719999</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         <v>6449925.728399999</v>
       </c>
       <c r="F56">
-        <v>99536085</v>
+        <v>98276326.11719999</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="M56">
-        <v>0.001667881633834942</v>
+        <v>0.00164677241797938</v>
       </c>
     </row>
     <row r="57">
@@ -5853,7 +5853,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>104756619</v>
+        <v>104759675.8428</v>
       </c>
       <c r="D57">
         <v>19421.3608275</v>
@@ -5862,7 +5862,7 @@
         <v>6178231.5276</v>
       </c>
       <c r="F57">
-        <v>104737197.6391725</v>
+        <v>104740254.4819725</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="M57">
-        <v>0.006836194779331043</v>
+        <v>0.006836394299399001</v>
       </c>
     </row>
     <row r="58">
@@ -5900,7 +5900,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>114675633.6</v>
+        <v>114673312.6638</v>
       </c>
       <c r="D58">
         <v>58111.59861867</v>
@@ -5909,7 +5909,7 @@
         <v>7384640.3268</v>
       </c>
       <c r="F58">
-        <v>114617522.0013813</v>
+        <v>114615201.0651813</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="M58">
-        <v>-0.002327069480486603</v>
+        <v>-0.002327022358722818</v>
       </c>
     </row>
     <row r="59">
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>125500379.4</v>
+        <v>125488170.8982</v>
       </c>
       <c r="D59">
         <v>1182294.78060432</v>
@@ -5956,7 +5956,7 @@
         <v>7906372.947</v>
       </c>
       <c r="F59">
-        <v>124318084.6193957</v>
+        <v>124305876.1175957</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         </is>
       </c>
       <c r="M59">
-        <v>-0.006571520734511101</v>
+        <v>-0.006570875386547758</v>
       </c>
     </row>
     <row r="60">
@@ -5994,7 +5994,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>126846396.6</v>
+        <v>130081536.3606</v>
       </c>
       <c r="D60">
         <v>381429.802925</v>
@@ -6003,7 +6003,7 @@
         <v>8584356.7788</v>
       </c>
       <c r="F60">
-        <v>126464966.797075</v>
+        <v>129700106.557675</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="M60">
-        <v>-0.002554522430427761</v>
+        <v>-0.002619870465487005</v>
       </c>
     </row>
     <row r="61">
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>143420019.6</v>
+        <v>143397621.6222</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -6050,7 +6050,7 @@
         <v>7204588.511999999</v>
       </c>
       <c r="F61">
-        <v>143420019.6</v>
+        <v>143397621.6222</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         </is>
       </c>
       <c r="M61">
-        <v>0.003275248875616489</v>
+        <v>0.003274737378324759</v>
       </c>
     </row>
     <row r="62">
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>154458618.6</v>
+        <v>154510553.4786</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>8706630.490799999</v>
       </c>
       <c r="F62">
-        <v>154458618.6</v>
+        <v>154510553.4786</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="M62">
-        <v>0.01129561846053317</v>
+        <v>0.01129941647827265</v>
       </c>
     </row>
     <row r="63">
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>158471511</v>
+        <v>158461780.6794</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6144,7 +6144,7 @@
         <v>8402864.5998</v>
       </c>
       <c r="F63">
-        <v>158471511</v>
+        <v>158461780.6794</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         </is>
       </c>
       <c r="M63">
-        <v>0.02148667349083713</v>
+        <v>0.02148535418605878</v>
       </c>
     </row>
     <row r="64">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>153722712</v>
+        <v>153728574.0936</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -6191,7 +6191,7 @@
         <v>9695179.487399999</v>
       </c>
       <c r="F64">
-        <v>153722712</v>
+        <v>153728574.0936</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="M64">
-        <v>0.03804843588132797</v>
+        <v>0.03804988682822819</v>
       </c>
     </row>
     <row r="65">
@@ -6229,7 +6229,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>151093575.6</v>
+        <v>151095236.1072</v>
       </c>
       <c r="D65">
         <v>220506.44815168</v>
@@ -6238,7 +6238,7 @@
         <v>11698952.5224</v>
       </c>
       <c r="F65">
-        <v>150873069.1518483</v>
+        <v>150874729.6590483</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         </is>
       </c>
       <c r="M65">
-        <v>0.193645588487956</v>
+        <v>0.1936477197489938</v>
       </c>
     </row>
     <row r="66">
@@ -6276,7 +6276,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>144464126.4</v>
+        <v>144465535.3152</v>
       </c>
       <c r="D66">
         <v>90446.18467875999</v>
@@ -6285,7 +6285,7 @@
         <v>10478454.5712</v>
       </c>
       <c r="F66">
-        <v>144373680.2153212</v>
+        <v>144375089.1305212</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="M66">
-        <v>0.5815869281240872</v>
+        <v>0.5815926037199571</v>
       </c>
     </row>
     <row r="67">
@@ -6323,7 +6323,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>145590000.6</v>
+        <v>145592912.7774</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>9955162.080599999</v>
       </c>
       <c r="F67">
-        <v>145590000.6</v>
+        <v>145592912.7774</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="M67">
-        <v>2.546547157418011</v>
+        <v>2.546598094962137</v>
       </c>
     </row>
     <row r="68">
@@ -6370,7 +6370,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>157540620.6</v>
+        <v>157542721.3932</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -6379,7 +6379,7 @@
         <v>10970706.8988</v>
       </c>
       <c r="F68">
-        <v>157540620.6</v>
+        <v>157542721.3932</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="M68">
-        <v>7.879926013655426</v>
+        <v>7.880031091919832</v>
       </c>
     </row>
     <row r="69">
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>165138699</v>
+        <v>165137944.224</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -6426,7 +6426,7 @@
         <v>10746230.2266</v>
       </c>
       <c r="F69">
-        <v>165138699</v>
+        <v>165137944.224</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         </is>
       </c>
       <c r="M69">
-        <v>20.69276321409797</v>
+        <v>20.69266863662374</v>
       </c>
     </row>
     <row r="70">
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>172554373.2</v>
+        <v>172553838.567</v>
       </c>
       <c r="D70">
         <v>1.20135371</v>
@@ -6473,7 +6473,7 @@
         <v>10006260.4158</v>
       </c>
       <c r="F70">
-        <v>172554371.9986463</v>
+        <v>172553837.3656463</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         </is>
       </c>
       <c r="M70">
-        <v>116.104077511799</v>
+        <v>116.1037177812946</v>
       </c>
     </row>
     <row r="71">
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>179674426.8</v>
+        <v>179675709.9192</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>12695476.9854</v>
       </c>
       <c r="F71">
-        <v>179674426.8</v>
+        <v>179675709.9192</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="M71">
-        <v>238.0106956098335</v>
+        <v>238.0123953291468</v>
       </c>
     </row>
     <row r="72">
@@ -6558,7 +6558,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>181473309.6</v>
+        <v>181475630.5362</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -6567,7 +6567,7 @@
         <v>12612149.715</v>
       </c>
       <c r="F72">
-        <v>181473309.6</v>
+        <v>181475630.5362</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="M72">
-        <v>457.0745643855116</v>
+        <v>457.0804100986081</v>
       </c>
     </row>
     <row r="73">
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>179070606</v>
+        <v>179071260.1392</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -6614,7 +6614,7 @@
         <v>11164634.0124</v>
       </c>
       <c r="F73">
-        <v>179070606</v>
+        <v>179071260.1392</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="M73">
-        <v>951.0883539934789</v>
+        <v>951.0918282888362</v>
       </c>
     </row>
     <row r="74">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>179095765.2</v>
+        <v>179096469.6576</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>11591019.5544</v>
       </c>
       <c r="F74">
-        <v>179095765.2</v>
+        <v>179096469.6576</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="M74">
-        <v>2728.374673266754</v>
+        <v>2728.385405090995</v>
       </c>
     </row>
     <row r="75">
@@ -6699,7 +6699,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>175095452.4</v>
+        <v>175096653.7518</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>13602654.8394</v>
       </c>
       <c r="F75">
-        <v>175095452.4</v>
+        <v>175096653.7518</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         </is>
       </c>
       <c r="M75">
-        <v>20569.83463637403</v>
+        <v>20569.97576858236</v>
       </c>
     </row>
     <row r="76">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>167780415</v>
+        <v>167780798.6778</v>
       </c>
       <c r="D76">
         <v>2557822.1855568</v>
@@ -6755,7 +6755,7 @@
         <v>11258496.6978</v>
       </c>
       <c r="F76">
-        <v>165222592.8144432</v>
+        <v>165222976.4922432</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="M76">
-        <v>128173.4050821683</v>
+        <v>128173.7027248166</v>
       </c>
     </row>
     <row r="77">
@@ -6793,7 +6793,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>158370874.2</v>
+        <v>158370534.5508</v>
       </c>
       <c r="D77">
         <v>828555.61461192</v>
@@ -6802,7 +6802,7 @@
         <v>11864349.1032</v>
       </c>
       <c r="F77">
-        <v>157542318.5853881</v>
+        <v>157541978.9361881</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="M77">
-        <v>134884.9312871232</v>
+        <v>134884.6404855188</v>
       </c>
     </row>
     <row r="78">
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>156345558.6</v>
+        <v>156346426.5924</v>
       </c>
       <c r="D78">
         <v>523314.55696856</v>
@@ -6849,7 +6849,7 @@
         <v>11616625.3302</v>
       </c>
       <c r="F78">
-        <v>155822244.0430314</v>
+        <v>155823112.0354314</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         </is>
       </c>
       <c r="M78">
-        <v>298051.5650796451</v>
+        <v>298053.2253464119</v>
       </c>
     </row>
     <row r="79">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>164308445.4</v>
+        <v>164306432.664</v>
       </c>
       <c r="D79">
         <v>1264149.1603008</v>
@@ -6896,7 +6896,7 @@
         <v>14156842.8276</v>
       </c>
       <c r="F79">
-        <v>163044296.2396992</v>
+        <v>163042283.5036992</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="M79">
-        <v>316941.5228815393</v>
+        <v>316937.6103275421</v>
       </c>
     </row>
     <row r="80">
@@ -6934,7 +6934,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>168019427.4</v>
+        <v>168021213.7032</v>
       </c>
       <c r="D80">
         <v>1987128.1000496</v>
@@ -6943,7 +6943,7 @@
         <v>12377420.6688</v>
       </c>
       <c r="F80">
-        <v>166032299.2999504</v>
+        <v>166034085.6031504</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="M80">
-        <v>71230790.14161672</v>
+        <v>71231556.49725296</v>
       </c>
     </row>
     <row r="81">
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>176139559.2</v>
+        <v>176139785.6328</v>
       </c>
       <c r="D81">
         <v>6529986.54580544</v>
@@ -6990,7 +6990,7 @@
         <v>12910707.6516</v>
       </c>
       <c r="F81">
-        <v>169609572.6541945</v>
+        <v>169609799.0869945</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         </is>
       </c>
       <c r="M81">
-        <v>1678783734.352241</v>
+        <v>1678785975.568321</v>
       </c>
     </row>
     <row r="82">
@@ -7028,7 +7028,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>180020365.8</v>
+        <v>180017346.696</v>
       </c>
       <c r="D82">
         <v>5543827.82874338</v>
@@ -7037,7 +7037,7 @@
         <v>11311790.1732</v>
       </c>
       <c r="F82">
-        <v>174476537.9712566</v>
+        <v>174473518.8672566</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="M82">
-        <v>5214892884.612784</v>
+        <v>5214802647.242474</v>
       </c>
     </row>
     <row r="83">
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>202820890.8</v>
+        <v>202821544.9392</v>
       </c>
       <c r="D83">
         <v>16964341.7535642</v>
@@ -7084,7 +7084,7 @@
         <v>6216247.078799999</v>
       </c>
       <c r="F83">
-        <v>185856549.0464358</v>
+        <v>185857203.1856358</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="M83">
-        <v>4777584878.023625</v>
+        <v>4777601693.172545</v>
       </c>
     </row>
     <row r="84">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>216709977.407682</v>
+        <v>216666596.091</v>
       </c>
       <c r="D84">
         <v>28450838.2634701</v>
@@ -7131,7 +7131,7 @@
         <v>6216247.078799999</v>
       </c>
       <c r="F84">
-        <v>188259139.1442119</v>
+        <v>188215757.8275299</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="M84">
-        <v>3143131620.383049</v>
+        <v>3142407335.820734</v>
       </c>
     </row>
     <row r="85">
@@ -7169,7 +7169,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>243705394.8377136</v>
+        <v>243619496.0958</v>
       </c>
       <c r="D85">
         <v>39566652.3671298</v>
@@ -7178,7 +7178,7 @@
         <v>3320020.6116</v>
       </c>
       <c r="F85">
-        <v>204138742.4705838</v>
+        <v>204052843.7286702</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="M85">
-        <v>2764376410.291955</v>
+        <v>2763213199.169235</v>
       </c>
     </row>
     <row r="86">
@@ -7216,7 +7216,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>262532039.2366254</v>
+        <v>262532037.834</v>
       </c>
       <c r="D86">
         <v>72848661.85889886</v>
@@ -7225,7 +7225,7 @@
         <v>3321668.5392</v>
       </c>
       <c r="F86">
-        <v>189683377.3777265</v>
+        <v>189683375.9751011</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         </is>
       </c>
       <c r="M86">
-        <v>3073700158.234031</v>
+        <v>3073700135.505366</v>
       </c>
     </row>
     <row r="87">
@@ -7263,7 +7263,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>286623718.1403618</v>
+        <v>286623720.3984</v>
       </c>
       <c r="D87">
         <v>118623835.5705348</v>
@@ -7272,7 +7272,7 @@
         <v>4349296.0632</v>
       </c>
       <c r="F87">
-        <v>167999882.569827</v>
+        <v>167999884.8278652</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="M87">
-        <v>2788881005.356001</v>
+        <v>2788881042.840551</v>
       </c>
     </row>
     <row r="88">
@@ -7310,7 +7310,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>304444926.5869968</v>
+        <v>304444925.2284</v>
       </c>
       <c r="D88">
         <v>122350382.8253784</v>
@@ -7319,7 +7319,7 @@
         <v>4193698.9908</v>
       </c>
       <c r="F88">
-        <v>182094543.7616184</v>
+        <v>182094542.4030216</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="M88">
-        <v>2461907893.718609</v>
+        <v>2461907875.350456</v>
       </c>
     </row>
     <row r="89">
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>309128920.3372326</v>
+        <v>309128920.419</v>
       </c>
       <c r="D89">
         <v>120668555.2790124</v>
@@ -7366,7 +7366,7 @@
         <v>5366834.748</v>
       </c>
       <c r="F89">
-        <v>188460365.0582202</v>
+        <v>188460365.1399876</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         </is>
       </c>
       <c r="M89">
-        <v>1550778378.60806</v>
+        <v>1550778379.280897</v>
       </c>
     </row>
     <row r="90">
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>298550679.4023428</v>
+        <v>280944389.517</v>
       </c>
       <c r="D90">
         <v>89549617.0844461</v>
@@ -7413,7 +7413,7 @@
         <v>4955978.7222</v>
       </c>
       <c r="F90">
-        <v>209001062.3178967</v>
+        <v>191394772.4325539</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="M90">
-        <v>2612199825.484502</v>
+        <v>2392147607.300231</v>
       </c>
     </row>
     <row r="91">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>283677273.7401372</v>
+        <v>272277680.3868</v>
       </c>
       <c r="D91">
         <v>5608444.835399999</v>
@@ -7460,7 +7460,7 @@
         <v>3770603.0142</v>
       </c>
       <c r="F91">
-        <v>278068828.9047372</v>
+        <v>266669235.5514</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="M91">
-        <v>5854383995.45078</v>
+        <v>5614380118.909524</v>
       </c>
     </row>
     <row r="92">
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>296445681.717603</v>
+        <v>280631962.5714</v>
       </c>
       <c r="D92">
         <v>104949187.5168</v>
@@ -7507,7 +7507,7 @@
         <v>3440935.7268</v>
       </c>
       <c r="F92">
-        <v>191496494.200803</v>
+        <v>175682775.0546</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="M92">
-        <v>3686712257.92388</v>
+        <v>3382264740.683495</v>
       </c>
     </row>
     <row r="93">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>292462821.4080672</v>
+        <v>276503268.6636</v>
       </c>
       <c r="D93">
         <v>97245641.75039999</v>
@@ -7554,7 +7554,7 @@
         <v>3262123.0026</v>
       </c>
       <c r="F93">
-        <v>195217179.6576672</v>
+        <v>179257626.9132</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="M93">
-        <v>-649064710.5975933</v>
+        <v>-596001847.4749908</v>
       </c>
     </row>
     <row r="94">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>285926125.4073411</v>
+        <v>270191278.2492</v>
       </c>
       <c r="D94">
         <v>83878726.09908</v>
@@ -7601,7 +7601,7 @@
         <v>3637529.7156</v>
       </c>
       <c r="F94">
-        <v>202047399.3082611</v>
+        <v>186312552.15012</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         </is>
       </c>
       <c r="M94">
-        <v>791031063.3184414</v>
+        <v>729427929.9879932</v>
       </c>
     </row>
     <row r="95">
@@ -7639,7 +7639,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>268899195.5961115</v>
+        <v>254315156.3304</v>
       </c>
       <c r="D95">
         <v>64388883.8736</v>
@@ -7648,7 +7648,7 @@
         <v>2802193.9572</v>
       </c>
       <c r="F95">
-        <v>204510311.7225115</v>
+        <v>189926272.4568</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         </is>
       </c>
       <c r="M95">
-        <v>2058090547.660467</v>
+        <v>1911323995.369474</v>
       </c>
     </row>
     <row r="96">
@@ -7686,7 +7686,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>257469922.2817313</v>
+        <v>242613090.357</v>
       </c>
       <c r="D96">
         <v>54636926.3616</v>
@@ -7695,7 +7695,7 @@
         <v>3926470.548</v>
       </c>
       <c r="F96">
-        <v>202832995.9201313</v>
+        <v>187976163.9954</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         </is>
       </c>
       <c r="M96">
-        <v>7830724658.690907</v>
+        <v>7257150524.091869</v>
       </c>
     </row>
     <row r="97">
@@ -7733,7 +7733,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>254181417.6250523</v>
+        <v>241190771.5932</v>
       </c>
       <c r="D97">
         <v>31949152.3164</v>
@@ -7742,7 +7742,7 @@
         <v>4868135.375399999</v>
       </c>
       <c r="F97">
-        <v>222232265.3086523</v>
+        <v>209241619.2768</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="M97">
-        <v>13014445172.18494</v>
+        <v>12253682326.61887</v>
       </c>
     </row>
     <row r="98">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>247773030.6396965</v>
+        <v>238412145.5166</v>
       </c>
       <c r="D98">
         <v>20763719.82234</v>
@@ -7789,7 +7789,7 @@
         <v>4998428.5824</v>
       </c>
       <c r="F98">
-        <v>227009310.8173565</v>
+        <v>217648425.69426</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         </is>
       </c>
       <c r="M98">
-        <v>20114414112.65318</v>
+        <v>19284982407.19142</v>
       </c>
     </row>
     <row r="99">
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>242036137.7849751</v>
+        <v>236452111.7508</v>
       </c>
       <c r="D99">
         <v>20686397.4114204</v>
@@ -7836,7 +7836,7 @@
         <v>5821304.247</v>
       </c>
       <c r="F99">
-        <v>221349740.3735547</v>
+        <v>215765714.3393796</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="M99">
-        <v>42283686063.79521</v>
+        <v>41216988612.9527</v>
       </c>
     </row>
     <row r="100">
@@ -7874,7 +7874,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>220344493.9499344</v>
+        <v>227941980.9018</v>
       </c>
       <c r="D100">
         <v>38281780.30050659</v>
@@ -7883,7 +7883,7 @@
         <v>11749044.4896</v>
       </c>
       <c r="F100">
-        <v>182062713.6494278</v>
+        <v>189660200.6012934</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         </is>
       </c>
       <c r="M100">
-        <v>14304004962.68433</v>
+        <v>14900911868.46997</v>
       </c>
     </row>
     <row r="101">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>215106366.4088183</v>
+        <v>222743303.9568</v>
       </c>
       <c r="D101">
         <v>33429069.6217896</v>
@@ -7930,7 +7930,7 @@
         <v>9634231.325399999</v>
       </c>
       <c r="F101">
-        <v>181677296.7870287</v>
+        <v>189314234.3350104</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         </is>
       </c>
       <c r="M101">
-        <v>34670804829.08138</v>
+        <v>36128217372.64397</v>
       </c>
     </row>
     <row r="102">
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>202002442.1947765</v>
+        <v>209615629.6542</v>
       </c>
       <c r="D102">
         <v>21725042.0421738</v>
@@ -7977,7 +7977,7 @@
         <v>12067704.627</v>
       </c>
       <c r="F102">
-        <v>180277400.1526027</v>
+        <v>187890587.6120262</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="M102">
-        <v>60076853846.98286</v>
+        <v>62613923662.29144</v>
       </c>
     </row>
     <row r="103">
@@ -8015,7 +8015,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>201076103.5525829</v>
+        <v>208440946.6062</v>
       </c>
       <c r="D103">
         <v>24058816.80833532</v>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>177017286.7442476</v>
+        <v>184382129.7978647</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         </is>
       </c>
       <c r="M103">
-        <v>71763627079.45377</v>
+        <v>74749368529.45178</v>
       </c>
     </row>
     <row r="104">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>197077899.6772364</v>
+        <v>204173770.1718</v>
       </c>
       <c r="D104">
         <v>15931837.93771614</v>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>181146061.7395202</v>
+        <v>188241932.2340839</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="M104">
-        <v>72152929438.44481</v>
+        <v>74979310747.43958</v>
       </c>
     </row>
     <row r="105">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>194226984.4178757</v>
+        <v>201146495.7216</v>
       </c>
       <c r="D105">
         <v>16825688.38858842</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>177401296.0292872</v>
+        <v>184320807.3330116</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="M105">
-        <v>85349458848.08238</v>
+        <v>88678501862.33727</v>
       </c>
     </row>
     <row r="106">
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>194339835.4062838</v>
+        <v>201105366.7194</v>
       </c>
       <c r="D106">
         <v>14726080.94671626</v>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>179613754.4595676</v>
+        <v>186379285.7726837</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         </is>
       </c>
       <c r="M106">
-        <v>9492387362.020294</v>
+        <v>9849938175.025757</v>
       </c>
     </row>
     <row r="107">
@@ -8203,7 +8203,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>186858772.4536606</v>
+        <v>178180149.422684</v>
       </c>
       <c r="D107">
         <v>18683541.3286236</v>
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>168175231.125037</v>
+        <v>159496608.0940604</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="M107">
-        <v>-649393678.5220947</v>
+        <v>-615881948.5432587</v>
       </c>
     </row>
     <row r="108">
@@ -8250,7 +8250,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>175065754.5388151</v>
+        <v>166357510.9765998</v>
       </c>
       <c r="D108">
         <v>10845928.399746</v>
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>164219826.1390691</v>
+        <v>155511582.5768538</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="M108">
-        <v>13609982004.86124</v>
+        <v>12888272324.84163</v>
       </c>
     </row>
     <row r="109">
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>178663117.0198723</v>
+        <v>169528964.5768283</v>
       </c>
       <c r="D109">
         <v>22591805.2422843</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>156071311.777588</v>
+        <v>146937159.334544</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         </is>
       </c>
       <c r="M109">
-        <v>-25362490536.24298</v>
+        <v>-23878137952.44824</v>
       </c>
     </row>
     <row r="110">
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>185655272.5290866</v>
+        <v>175152024.2241997</v>
       </c>
       <c r="D110">
         <v>23950112.1422574</v>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>161705160.3868292</v>
+        <v>151201912.0819423</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>175827628.644158</v>
+        <v>164579561.1756965</v>
       </c>
       <c r="D111">
         <v>11961897.6554286</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>163865730.9887294</v>
+        <v>152617663.5202679</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>

--- a/analisis/resultados/argentina/renta_metodo_indirecto.xlsx
+++ b/analisis/resultados/argentina/renta_metodo_indirecto.xlsx
@@ -428,7 +428,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>renta_empresas_desp_impuestos</t>
+          <t>renta_empresas</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -2799,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>1511.864645257274</v>
       </c>
       <c r="N89">
-        <v>71551.57990047976</v>
+        <v>73063.44454573703</v>
       </c>
     </row>
     <row r="90">
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>6974.26259189718</v>
       </c>
       <c r="N90">
-        <v>94620.78245288099</v>
+        <v>101595.0450447782</v>
       </c>
     </row>
     <row r="91">
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>-27753.35948096853</v>
       </c>
       <c r="N91">
-        <v>200994.9132576386</v>
+        <v>173241.5537766701</v>
       </c>
     </row>
     <row r="92">
@@ -2937,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>-33294.83120827359</v>
       </c>
       <c r="N92">
-        <v>154795.9048829631</v>
+        <v>121501.0736746895</v>
       </c>
     </row>
     <row r="93">
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>158983.7936548035</v>
+        <v>81463.43682196068</v>
       </c>
       <c r="N93">
-        <v>166946.9343104345</v>
+        <v>89426.57747759169</v>
       </c>
     </row>
     <row r="94">
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>81712.67876940637</v>
+        <v>86809.56295920277</v>
       </c>
       <c r="N94">
-        <v>137862.7528165171</v>
+        <v>142959.6370063135</v>
       </c>
     </row>
     <row r="95">
@@ -3075,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>83435.52685142949</v>
+        <v>142106.8773352356</v>
       </c>
       <c r="N95">
-        <v>194262.9258815708</v>
+        <v>252934.2763653769</v>
       </c>
     </row>
     <row r="96">
@@ -3121,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>78761.15127705933</v>
+        <v>148685.8744311602</v>
       </c>
       <c r="N96">
-        <v>329498.6009218067</v>
+        <v>399423.3240759076</v>
       </c>
     </row>
     <row r="97">
@@ -3167,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>81811.55603071259</v>
+        <v>218891.1053152463</v>
       </c>
       <c r="N97">
-        <v>459769.5120919829</v>
+        <v>596849.0613765167</v>
       </c>
     </row>
     <row r="98">
@@ -3213,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>42290.87318073997</v>
+        <v>160153.1158825995</v>
       </c>
       <c r="N98">
-        <v>520157.3328463207</v>
+        <v>638019.5755481802</v>
       </c>
     </row>
     <row r="99">
@@ -3259,10 +3259,10 @@
         <v>6686.514456747649</v>
       </c>
       <c r="M99">
-        <v>30742.98970312577</v>
+        <v>136454.2352874954</v>
       </c>
       <c r="N99">
-        <v>1160091.858410827</v>
+        <v>1265803.103995196</v>
       </c>
     </row>
     <row r="100">
@@ -3305,10 +3305,10 @@
         <v>22840.09983724428</v>
       </c>
       <c r="M100">
-        <v>51769.51930961904</v>
+        <v>152419.9514101309</v>
       </c>
       <c r="N100">
-        <v>596778.2957206669</v>
+        <v>697428.7278211787</v>
       </c>
     </row>
     <row r="101">
@@ -3351,10 +3351,10 @@
         <v>28406.20760098745</v>
       </c>
       <c r="M101">
-        <v>45729.79459170684</v>
+        <v>132539.8926763546</v>
       </c>
       <c r="N101">
-        <v>773417.698097933</v>
+        <v>860227.7961825806</v>
       </c>
     </row>
     <row r="102">
@@ -3397,10 +3397,10 @@
         <v>31668.95361576589</v>
       </c>
       <c r="M102">
-        <v>29920.28463589725</v>
+        <v>93760.08052300043</v>
       </c>
       <c r="N102">
-        <v>911043.4143808995</v>
+        <v>974883.2102680026</v>
       </c>
     </row>
     <row r="103">
@@ -3443,10 +3443,10 @@
         <v>20304.75734662714</v>
       </c>
       <c r="M103">
-        <v>7334.531326091761</v>
+        <v>62334.27692525477</v>
       </c>
       <c r="N103">
-        <v>966616.4606743279</v>
+        <v>1021616.206273491</v>
       </c>
     </row>
     <row r="104">
@@ -3489,10 +3489,10 @@
         <v>43523.39928321803</v>
       </c>
       <c r="M104">
-        <v>7125.036379798606</v>
+        <v>985.2405161204223</v>
       </c>
       <c r="N104">
-        <v>758386.7343621223</v>
+        <v>752246.9384984442</v>
       </c>
     </row>
     <row r="105">
@@ -3535,10 +3535,10 @@
         <v>47207.29103090671</v>
       </c>
       <c r="M105">
-        <v>19176.57960293561</v>
+        <v>68453.8680193912</v>
       </c>
       <c r="N105">
-        <v>674344.1668893128</v>
+        <v>723621.4553057684</v>
       </c>
     </row>
     <row r="106">
@@ -3581,10 +3581,10 @@
         <v>57430.71189412219</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>-5202.000605592515</v>
       </c>
       <c r="N106">
-        <v>263480.1043664269</v>
+        <v>258278.1037608344</v>
       </c>
     </row>
     <row r="107">
@@ -3627,10 +3627,10 @@
         <v>17493.75669023072</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>-47407.33585969116</v>
       </c>
       <c r="N107">
-        <v>106214.8565489598</v>
+        <v>58807.52068926865</v>
       </c>
     </row>
     <row r="108">
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>136310.5801336527</v>
       </c>
       <c r="N108">
-        <v>169028.2691572387</v>
+        <v>305338.8492908914</v>
       </c>
     </row>
     <row r="109">
@@ -3719,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>209705.2656591519</v>
       </c>
       <c r="N109">
-        <v>192840.015951438</v>
+        <v>402545.2816105899</v>
       </c>
     </row>
     <row r="110">
